--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_3_14.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_3_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-252396.6904392124</v>
+        <v>-257684.8059339855</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516697</v>
+        <v>2280223.653892729</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11903952.87233595</v>
+        <v>11902182.9341647</v>
       </c>
     </row>
     <row r="11">
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>130.7412397021826</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>288.6184687822096</v>
       </c>
       <c r="I2" t="n">
         <v>136.9537457384598</v>
@@ -710,22 +710,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C3" t="n">
         <v>149.1476881355087</v>
@@ -747,16 +747,16 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
-        <v>88.28811676593772</v>
+        <v>96.52485201226574</v>
       </c>
       <c r="G3" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,31 +814,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>129.6022067968809</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>104.8248812337817</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,25 +896,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>140.8415720913796</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>35.17733511390853</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -984,7 +984,7 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G6" t="n">
         <v>118.8592197488542</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>175.2139736830806</v>
+        <v>50.6435372072262</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
@@ -1041,7 +1041,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y6" t="n">
-        <v>115.5308204246338</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="7">
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>155.7604785656204</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,19 +1063,19 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>30.76686263866189</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>233.8300434453436</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>40.66526649361845</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
         <v>136.9537457384598</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>21.77459865477348</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,25 +1339,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>256.4561542453789</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1376,7 +1376,7 @@
         <v>310.508405100767</v>
       </c>
       <c r="E11" t="n">
-        <v>70.89972413601009</v>
+        <v>327.4793772398889</v>
       </c>
       <c r="F11" t="n">
         <v>341.6471816905901</v>
@@ -1385,10 +1385,10 @@
         <v>337.9528155621449</v>
       </c>
       <c r="H11" t="n">
-        <v>249.7639075344423</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372788</v>
+        <v>65.87543334372786</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.770107113628</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>150.1872840214455</v>
       </c>
       <c r="U11" t="n">
-        <v>182.1168898750154</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>267.6074288087848</v>
+        <v>222.1989136064505</v>
       </c>
       <c r="W11" t="n">
         <v>296.2107322866635</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>314.4797666215418</v>
       </c>
       <c r="Y11" t="n">
         <v>321.4474895938729</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993873</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>82.99846957177844</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465757</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>41.42518702485025</v>
+        <v>84.67436304442482</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>82.84545313338901</v>
+        <v>82.845453133389</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456094</v>
+        <v>60.68516871456093</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>51.58366707901685</v>
       </c>
       <c r="S13" t="n">
         <v>129.7096105845442</v>
       </c>
       <c r="T13" t="n">
-        <v>162.2835489187163</v>
+        <v>162.2835489187162</v>
       </c>
       <c r="U13" t="n">
-        <v>211.5060914457861</v>
+        <v>150.5043977036435</v>
       </c>
       <c r="V13" t="n">
         <v>192.2412393326521</v>
       </c>
       <c r="W13" t="n">
-        <v>209.4187856534022</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y13" t="n">
         <v>149.8026281767911</v>
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>325.4114858595509</v>
       </c>
       <c r="C14" t="n">
         <v>318.1654340873667</v>
       </c>
       <c r="D14" t="n">
-        <v>310.508405100767</v>
+        <v>310.5084051007669</v>
       </c>
       <c r="E14" t="n">
         <v>327.4793772398889</v>
       </c>
       <c r="F14" t="n">
-        <v>341.6471816905901</v>
+        <v>341.64718169059</v>
       </c>
       <c r="G14" t="n">
-        <v>337.9528155621449</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>249.7639075344423</v>
+        <v>249.7639075344422</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372788</v>
+        <v>65.87543334372783</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.770107113628</v>
+        <v>93.77010711362796</v>
       </c>
       <c r="T14" t="n">
         <v>150.1872840214455</v>
@@ -1664,13 +1664,13 @@
         <v>182.1168898750154</v>
       </c>
       <c r="V14" t="n">
-        <v>267.6074288087848</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>12.54612284480695</v>
       </c>
       <c r="X14" t="n">
-        <v>46.87713095496958</v>
+        <v>314.4797666215417</v>
       </c>
       <c r="Y14" t="n">
         <v>321.4474895938729</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>112.2776261096563</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993873</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177846</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465757</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442484</v>
+        <v>84.67436304442479</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>95.49320096681693</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>82.84545313338897</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456094</v>
+        <v>60.6851687145609</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901686</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>129.7096105845441</v>
       </c>
       <c r="T16" t="n">
-        <v>162.2835489187163</v>
+        <v>162.2835489187162</v>
       </c>
       <c r="U16" t="n">
         <v>211.5060914457861</v>
       </c>
       <c r="V16" t="n">
-        <v>192.2412393326521</v>
+        <v>192.241239332652</v>
       </c>
       <c r="W16" t="n">
-        <v>209.4187856534022</v>
+        <v>90.36486805149221</v>
       </c>
       <c r="X16" t="n">
-        <v>72.24875311469725</v>
+        <v>160.6612066001147</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="17">
@@ -1841,13 +1841,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C17" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D17" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E17" t="n">
         <v>268.1977203190365</v>
@@ -1856,13 +1856,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G17" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H17" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,22 +1892,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U17" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V17" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879315</v>
       </c>
       <c r="W17" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X17" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y17" t="n">
         <v>262.1658326730205</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E19" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F19" t="n">
-        <v>25.39270612357237</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G19" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253654</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T19" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U19" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V19" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W19" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X19" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="20">
@@ -2078,13 +2078,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C20" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D20" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E20" t="n">
         <v>268.1977203190365</v>
@@ -2093,13 +2093,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G20" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U20" t="n">
         <v>122.835232954163</v>
@@ -2141,10 +2141,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W20" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X20" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y20" t="n">
         <v>262.1658326730205</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E22" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F22" t="n">
-        <v>25.39270612357237</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G22" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253654</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T22" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U22" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V22" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X22" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="23">
@@ -2315,28 +2315,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C23" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D23" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E23" t="n">
         <v>268.1977203190365</v>
       </c>
       <c r="F23" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697363</v>
       </c>
       <c r="G23" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H23" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U23" t="n">
         <v>122.835232954163</v>
@@ -2378,10 +2378,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W23" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X23" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y23" t="n">
         <v>262.1658326730205</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E25" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F25" t="n">
-        <v>25.39270612357237</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G25" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253654</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T25" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U25" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V25" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W25" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X25" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414333</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404348</v>
+        <v>70.85714503404346</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007178</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035421</v>
+        <v>74.51179228035419</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219391</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507302</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484029</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723243</v>
       </c>
       <c r="H28" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380447</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497643</v>
+        <v>37.7722066349764</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943232</v>
       </c>
       <c r="S28" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T28" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U28" t="n">
         <v>188.5931293662016</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.1533409542121</v>
+        <v>283.709878481573</v>
       </c>
       <c r="C32" t="n">
-        <v>282.907289182028</v>
+        <v>276.4638267093888</v>
       </c>
       <c r="D32" t="n">
-        <v>275.2502601954282</v>
+        <v>268.806797722789</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345501</v>
+        <v>285.777769861911</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852513</v>
+        <v>299.9455743126121</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568061</v>
+        <v>296.251208184167</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291035</v>
+        <v>208.0623001564643</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838907</v>
+        <v>24.17382596574993</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828919</v>
+        <v>52.06849973565005</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161067</v>
+        <v>108.4856766434676</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696766</v>
+        <v>140.4152824970375</v>
       </c>
       <c r="V32" t="n">
-        <v>232.349283903446</v>
+        <v>225.9058214308069</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813246</v>
+        <v>254.5091249086855</v>
       </c>
       <c r="X32" t="n">
-        <v>279.221621716203</v>
+        <v>272.7781592435638</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885341</v>
+        <v>279.745882215895</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431751</v>
+        <v>70.57601873167837</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459992</v>
+        <v>55.72314698196078</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643965</v>
+        <v>41.29686219380051</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931876</v>
+        <v>41.22330424667962</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908603</v>
+        <v>42.97275566644689</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147816</v>
+        <v>53.79159358883902</v>
       </c>
       <c r="H34" t="n">
-        <v>47.5873082280502</v>
+        <v>41.14384575541106</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922213</v>
+        <v>18.98356133658299</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367805</v>
+        <v>9.882059701038912</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920537</v>
+        <v>88.00800320656623</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133775</v>
+        <v>120.5819415407383</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404473</v>
+        <v>169.8044840678082</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273133</v>
+        <v>150.5396319546741</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480634</v>
+        <v>167.7171782754243</v>
       </c>
       <c r="X34" t="n">
-        <v>125.403061694776</v>
+        <v>118.9595992221368</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714523</v>
+        <v>108.1010207988132</v>
       </c>
     </row>
     <row r="35">
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C38" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E38" t="n">
         <v>268.1977203190365</v>
@@ -3518,10 +3518,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H38" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E40" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F40" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G40" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T40" t="n">
         <v>103.0018919978638</v>
@@ -3721,13 +3721,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W40" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X40" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="41">
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1133.086926026008</v>
+        <v>493.3505564158014</v>
       </c>
       <c r="C2" t="n">
-        <v>739.9114245289381</v>
+        <v>493.3505564158014</v>
       </c>
       <c r="D2" t="n">
-        <v>739.9114245289381</v>
+        <v>493.3505564158014</v>
       </c>
       <c r="E2" t="n">
-        <v>607.8495662439052</v>
+        <v>493.3505564158014</v>
       </c>
       <c r="F2" t="n">
-        <v>594.995531814287</v>
+        <v>480.4965219861832</v>
       </c>
       <c r="G2" t="n">
-        <v>181.8327763022902</v>
+        <v>471.3741705145904</v>
       </c>
       <c r="H2" t="n">
-        <v>181.8327763022902</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="J2" t="n">
-        <v>188.1454323035831</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="K2" t="n">
-        <v>547.1277883310449</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.448080049574</v>
+        <v>74.88432743274757</v>
       </c>
       <c r="M2" t="n">
-        <v>1578.706865059667</v>
+        <v>588.4870060424361</v>
       </c>
       <c r="N2" t="n">
-        <v>1641.749917465281</v>
+        <v>1102.089684652125</v>
       </c>
       <c r="O2" t="n">
-        <v>1641.749917465281</v>
+        <v>1542.129285544453</v>
       </c>
       <c r="P2" t="n">
-        <v>1989.937409596803</v>
+        <v>1890.316777675975</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="R2" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="S2" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="T2" t="n">
-        <v>2174.782969737751</v>
+        <v>1851.66173537634</v>
       </c>
       <c r="U2" t="n">
-        <v>1919.03024017235</v>
+        <v>1595.909005810939</v>
       </c>
       <c r="V2" t="n">
-        <v>1919.03024017235</v>
+        <v>1253.802196514457</v>
       </c>
       <c r="W2" t="n">
-        <v>1919.03024017235</v>
+        <v>882.8031614827446</v>
       </c>
       <c r="X2" t="n">
-        <v>1529.577635105406</v>
+        <v>493.3505564158014</v>
       </c>
       <c r="Y2" t="n">
-        <v>1133.086926026008</v>
+        <v>493.3505564158014</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>807.6097523431074</v>
+        <v>556.1927859813184</v>
       </c>
       <c r="C3" t="n">
-        <v>656.9555219031996</v>
+        <v>405.5385555414106</v>
       </c>
       <c r="D3" t="n">
-        <v>526.8665545246799</v>
+        <v>275.4495881628909</v>
       </c>
       <c r="E3" t="n">
-        <v>390.4200636355677</v>
+        <v>139.0030972737786</v>
       </c>
       <c r="F3" t="n">
-        <v>301.240147710378</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="G3" t="n">
-        <v>181.1803297822425</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="H3" t="n">
-        <v>92.88291338284344</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="J3" t="n">
-        <v>156.6106416144824</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K3" t="n">
-        <v>476.3497876767088</v>
+        <v>474.3573750382923</v>
       </c>
       <c r="L3" t="n">
-        <v>959.915873575022</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="M3" t="n">
-        <v>959.915873575022</v>
+        <v>1327.194567652344</v>
       </c>
       <c r="N3" t="n">
-        <v>1018.276226875482</v>
+        <v>1840.797246262033</v>
       </c>
       <c r="O3" t="n">
-        <v>1534.796509466463</v>
+        <v>1840.797246262033</v>
       </c>
       <c r="P3" t="n">
-        <v>1940.41787818286</v>
+        <v>1840.797246262033</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.865926635815</v>
+        <v>2051.245294714988</v>
       </c>
       <c r="S3" t="n">
-        <v>2015.935249535684</v>
+        <v>1916.314617614857</v>
       </c>
       <c r="T3" t="n">
-        <v>1838.951437734593</v>
+        <v>1739.330805813765</v>
       </c>
       <c r="U3" t="n">
-        <v>1628.888294413234</v>
+        <v>1529.267662492407</v>
       </c>
       <c r="V3" t="n">
-        <v>1406.348292784302</v>
+        <v>1306.727660863474</v>
       </c>
       <c r="W3" t="n">
-        <v>1176.231046917588</v>
+        <v>1076.610414996761</v>
       </c>
       <c r="X3" t="n">
-        <v>986.9239692676001</v>
+        <v>887.3033373467724</v>
       </c>
       <c r="Y3" t="n">
-        <v>807.6097523431074</v>
+        <v>707.9891204222797</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>369.2595894695633</v>
+        <v>528.7085472322192</v>
       </c>
       <c r="C4" t="n">
-        <v>199.0544715355525</v>
+        <v>528.7085472322192</v>
       </c>
       <c r="D4" t="n">
-        <v>199.0544715355525</v>
+        <v>528.7085472322192</v>
       </c>
       <c r="E4" t="n">
-        <v>43.49565939475502</v>
+        <v>528.7085472322192</v>
       </c>
       <c r="F4" t="n">
-        <v>43.49565939475502</v>
+        <v>528.7085472322192</v>
       </c>
       <c r="G4" t="n">
-        <v>43.49565939475502</v>
+        <v>360.4544933316647</v>
       </c>
       <c r="H4" t="n">
-        <v>43.49565939475502</v>
+        <v>204.9759422931587</v>
       </c>
       <c r="I4" t="n">
-        <v>43.49565939475502</v>
+        <v>71.88151693023653</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046969</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784967</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167607</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T4" t="n">
-        <v>709.2236301045415</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="U4" t="n">
-        <v>709.2236301045415</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="V4" t="n">
-        <v>709.2236301045415</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="W4" t="n">
-        <v>603.3399116865802</v>
+        <v>659.6198672290686</v>
       </c>
       <c r="X4" t="n">
-        <v>369.2595894695633</v>
+        <v>659.6198672290686</v>
       </c>
       <c r="Y4" t="n">
-        <v>369.2595894695633</v>
+        <v>659.6198672290686</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1529.016082672817</v>
+        <v>1650.177071018759</v>
       </c>
       <c r="C5" t="n">
-        <v>1529.016082672817</v>
+        <v>1257.00156952169</v>
       </c>
       <c r="D5" t="n">
-        <v>1143.574953889485</v>
+        <v>871.5604407383576</v>
       </c>
       <c r="E5" t="n">
-        <v>740.9914290060292</v>
+        <v>871.5604407383576</v>
       </c>
       <c r="F5" t="n">
-        <v>324.096990536007</v>
+        <v>454.6660022683353</v>
       </c>
       <c r="G5" t="n">
-        <v>181.8327763022902</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="H5" t="n">
-        <v>181.8327763022902</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="J5" t="n">
-        <v>188.1454323035831</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="K5" t="n">
-        <v>547.1277883310449</v>
+        <v>400.4856027838003</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.448080049574</v>
+        <v>893.8058945023291</v>
       </c>
       <c r="M5" t="n">
-        <v>1578.706865059667</v>
+        <v>893.8058945023291</v>
       </c>
       <c r="N5" t="n">
-        <v>1734.743368845423</v>
+        <v>1407.408573112018</v>
       </c>
       <c r="O5" t="n">
-        <v>2174.782969737751</v>
+        <v>1726.974845685402</v>
       </c>
       <c r="P5" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="R5" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="S5" t="n">
-        <v>2008.269414678802</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="T5" t="n">
-        <v>1784.768812238218</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="U5" t="n">
-        <v>1529.016082672817</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="V5" t="n">
-        <v>1529.016082672817</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="W5" t="n">
-        <v>1529.016082672817</v>
+        <v>2039.629676085703</v>
       </c>
       <c r="X5" t="n">
-        <v>1529.016082672817</v>
+        <v>1650.177071018759</v>
       </c>
       <c r="Y5" t="n">
-        <v>1529.016082672817</v>
+        <v>1650.177071018759</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>718.4298364179177</v>
+        <v>840.8692298963695</v>
       </c>
       <c r="C6" t="n">
-        <v>567.7756059780099</v>
+        <v>690.2149994564617</v>
       </c>
       <c r="D6" t="n">
-        <v>437.6866385994903</v>
+        <v>560.126032077942</v>
       </c>
       <c r="E6" t="n">
-        <v>301.240147710378</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="F6" t="n">
-        <v>301.240147710378</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822425</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284344</v>
+        <v>90.89050074442687</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="J6" t="n">
-        <v>156.6106416144824</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="K6" t="n">
-        <v>476.3497876767088</v>
+        <v>361.2423928185649</v>
       </c>
       <c r="L6" t="n">
-        <v>959.915873575022</v>
+        <v>407.9705203262583</v>
       </c>
       <c r="M6" t="n">
-        <v>1498.174658585115</v>
+        <v>921.5731989359468</v>
       </c>
       <c r="N6" t="n">
-        <v>1534.796509466463</v>
+        <v>1435.175877545635</v>
       </c>
       <c r="O6" t="n">
-        <v>1534.796509466463</v>
+        <v>1435.175877545635</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.41787818286</v>
+        <v>1840.797246262033</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="R6" t="n">
-        <v>2150.865926635815</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="S6" t="n">
-        <v>2015.935249535684</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="T6" t="n">
-        <v>1838.951437734593</v>
+        <v>2024.007249728816</v>
       </c>
       <c r="U6" t="n">
-        <v>1628.888294413234</v>
+        <v>1813.944106407458</v>
       </c>
       <c r="V6" t="n">
-        <v>1406.348292784302</v>
+        <v>1591.404104778525</v>
       </c>
       <c r="W6" t="n">
-        <v>1176.231046917588</v>
+        <v>1361.286858911812</v>
       </c>
       <c r="X6" t="n">
-        <v>986.9239692676001</v>
+        <v>1171.979781261824</v>
       </c>
       <c r="Y6" t="n">
-        <v>870.2261708588791</v>
+        <v>992.6655643373308</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>393.5245449990326</v>
+        <v>657.5114775397919</v>
       </c>
       <c r="C7" t="n">
-        <v>393.5245449990326</v>
+        <v>500.1776608068421</v>
       </c>
       <c r="D7" t="n">
-        <v>393.5245449990326</v>
+        <v>500.1776608068421</v>
       </c>
       <c r="E7" t="n">
-        <v>393.5245449990326</v>
+        <v>500.1776608068421</v>
       </c>
       <c r="F7" t="n">
-        <v>393.5245449990326</v>
+        <v>342.851726019815</v>
       </c>
       <c r="G7" t="n">
-        <v>362.4469059700812</v>
+        <v>174.5976721192606</v>
       </c>
       <c r="H7" t="n">
-        <v>206.9683549315752</v>
+        <v>174.5976721192606</v>
       </c>
       <c r="I7" t="n">
-        <v>73.87392956865307</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046969</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784967</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167607</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="U7" t="n">
-        <v>659.5038901782084</v>
+        <v>657.5114775397919</v>
       </c>
       <c r="V7" t="n">
-        <v>393.5245449990326</v>
+        <v>657.5114775397919</v>
       </c>
       <c r="W7" t="n">
-        <v>393.5245449990326</v>
+        <v>657.5114775397919</v>
       </c>
       <c r="X7" t="n">
-        <v>393.5245449990326</v>
+        <v>657.5114775397919</v>
       </c>
       <c r="Y7" t="n">
-        <v>393.5245449990326</v>
+        <v>657.5114775397919</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1431.64520590712</v>
+        <v>1732.965832921677</v>
       </c>
       <c r="C8" t="n">
-        <v>1431.64520590712</v>
+        <v>1339.790331424607</v>
       </c>
       <c r="D8" t="n">
-        <v>1046.204077123787</v>
+        <v>1339.790331424607</v>
       </c>
       <c r="E8" t="n">
-        <v>643.6205522403318</v>
+        <v>1339.790331424607</v>
       </c>
       <c r="F8" t="n">
-        <v>226.7261137703096</v>
+        <v>922.895892954585</v>
       </c>
       <c r="G8" t="n">
-        <v>185.6500870090788</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="H8" t="n">
         <v>185.6500870090788</v>
@@ -4802,22 +4802,22 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K8" t="n">
-        <v>550.9450990378335</v>
+        <v>358.4764287842802</v>
       </c>
       <c r="L8" t="n">
-        <v>1044.265390756362</v>
+        <v>851.7967205028091</v>
       </c>
       <c r="M8" t="n">
-        <v>1049.610128415868</v>
+        <v>1397.79762054739</v>
       </c>
       <c r="N8" t="n">
-        <v>1577.42141205333</v>
+        <v>1925.608904184852</v>
       </c>
       <c r="O8" t="n">
-        <v>2017.461012945658</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P8" t="n">
         <v>2365.64850507718</v>
@@ -4829,25 +4829,25 @@
         <v>2365.64850507718</v>
       </c>
       <c r="S8" t="n">
-        <v>2199.134950018231</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T8" t="n">
-        <v>2199.134950018231</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="U8" t="n">
-        <v>2199.134950018231</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="V8" t="n">
-        <v>2199.134950018231</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="W8" t="n">
-        <v>1828.135914986518</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="X8" t="n">
-        <v>1828.135914986518</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Y8" t="n">
-        <v>1431.64520590712</v>
+        <v>1969.157795997781</v>
       </c>
     </row>
     <row r="9">
@@ -4884,16 +4884,16 @@
         <v>160.4279523212711</v>
       </c>
       <c r="K9" t="n">
-        <v>480.1670983834975</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="L9" t="n">
-        <v>963.7331842818107</v>
+        <v>623.6437572083089</v>
       </c>
       <c r="M9" t="n">
-        <v>1549.231189288413</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="N9" t="n">
-        <v>1725.662044805892</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O9" t="n">
         <v>1725.662044805892</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>47.31297010154361</v>
+        <v>224.7860652357804</v>
       </c>
       <c r="C10" t="n">
-        <v>47.31297010154361</v>
+        <v>224.7860652357804</v>
       </c>
       <c r="D10" t="n">
-        <v>47.31297010154361</v>
+        <v>224.7860652357804</v>
       </c>
       <c r="E10" t="n">
-        <v>47.31297010154361</v>
+        <v>224.7860652357804</v>
       </c>
       <c r="F10" t="n">
-        <v>47.31297010154361</v>
+        <v>224.7860652357804</v>
       </c>
       <c r="G10" t="n">
-        <v>47.31297010154361</v>
+        <v>224.7860652357804</v>
       </c>
       <c r="H10" t="n">
-        <v>47.31297010154361</v>
+        <v>69.3075141972744</v>
       </c>
       <c r="I10" t="n">
         <v>47.31297010154361</v>
@@ -4987,25 +4987,25 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>948.7599926430961</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="T10" t="n">
-        <v>948.7599926430961</v>
+        <v>510.2248569938795</v>
       </c>
       <c r="U10" t="n">
-        <v>948.7599926430961</v>
+        <v>224.7860652357804</v>
       </c>
       <c r="V10" t="n">
-        <v>948.7599926430961</v>
+        <v>224.7860652357804</v>
       </c>
       <c r="W10" t="n">
-        <v>689.7133721932184</v>
+        <v>224.7860652357804</v>
       </c>
       <c r="X10" t="n">
-        <v>455.6330499762015</v>
+        <v>224.7860652357804</v>
       </c>
       <c r="Y10" t="n">
-        <v>232.5209887928449</v>
+        <v>224.7860652357804</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1452.672125045209</v>
+        <v>1459.556716529488</v>
       </c>
       <c r="C11" t="n">
-        <v>1452.672125045209</v>
+        <v>1459.556716529488</v>
       </c>
       <c r="D11" t="n">
-        <v>1139.027271408071</v>
+        <v>1145.91186289235</v>
       </c>
       <c r="E11" t="n">
-        <v>1067.411388442404</v>
+        <v>815.1246131550884</v>
       </c>
       <c r="F11" t="n">
-        <v>722.3132251185755</v>
+        <v>470.0264498312599</v>
       </c>
       <c r="G11" t="n">
-        <v>380.9467447527725</v>
+        <v>128.6599694654568</v>
       </c>
       <c r="H11" t="n">
-        <v>128.659969465457</v>
+        <v>128.6599694654568</v>
       </c>
       <c r="I11" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J11" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K11" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L11" t="n">
         <v>1059.071548358934</v>
@@ -5066,25 +5066,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>3011.239105293021</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T11" t="n">
-        <v>2859.534777998631</v>
+        <v>2954.252057911387</v>
       </c>
       <c r="U11" t="n">
-        <v>2675.578323579424</v>
+        <v>2954.252057911387</v>
       </c>
       <c r="V11" t="n">
-        <v>2405.267789429136</v>
+        <v>2729.808710834164</v>
       </c>
       <c r="W11" t="n">
-        <v>2106.065029543618</v>
+        <v>2430.605950948645</v>
       </c>
       <c r="X11" t="n">
-        <v>2106.065029543618</v>
+        <v>2112.949621027896</v>
       </c>
       <c r="Y11" t="n">
-        <v>1781.370595610412</v>
+        <v>1788.255187094691</v>
       </c>
     </row>
     <row r="12">
@@ -5118,22 +5118,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K12" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L12" t="n">
-        <v>175.2341099238429</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M12" t="n">
-        <v>568.1699486069232</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N12" t="n">
-        <v>1223.947919817482</v>
+        <v>1629.56928853388</v>
       </c>
       <c r="O12" t="n">
-        <v>1740.468202408463</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P12" t="n">
         <v>2146.089571124861</v>
@@ -5173,16 +5173,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>431.1145568530005</v>
+        <v>376.4660514052804</v>
       </c>
       <c r="C13" t="n">
-        <v>332.7057140651838</v>
+        <v>376.4660514052804</v>
       </c>
       <c r="D13" t="n">
-        <v>332.7057140651838</v>
+        <v>292.629213453989</v>
       </c>
       <c r="E13" t="n">
-        <v>248.9431770705802</v>
+        <v>292.629213453989</v>
       </c>
       <c r="F13" t="n">
         <v>207.0995538131559</v>
@@ -5209,7 +5209,7 @@
         <v>746.0697615118222</v>
       </c>
       <c r="N13" t="n">
-        <v>999.626924813816</v>
+        <v>999.6269248138161</v>
       </c>
       <c r="O13" t="n">
         <v>1232.699221126309</v>
@@ -5218,31 +5218,31 @@
         <v>1422.942916173672</v>
       </c>
       <c r="Q13" t="n">
-        <v>1496.732641814507</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="R13" t="n">
-        <v>1496.732641814507</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="S13" t="n">
-        <v>1365.712833143251</v>
+        <v>1313.608118922022</v>
       </c>
       <c r="T13" t="n">
-        <v>1201.790056457679</v>
+        <v>1149.68534223645</v>
       </c>
       <c r="U13" t="n">
-        <v>988.1475398457735</v>
+        <v>997.6606980913551</v>
       </c>
       <c r="V13" t="n">
-        <v>793.9644698127917</v>
+        <v>803.4776280583735</v>
       </c>
       <c r="W13" t="n">
-        <v>582.4303428901633</v>
+        <v>803.4776280583735</v>
       </c>
       <c r="X13" t="n">
-        <v>582.4303428901633</v>
+        <v>641.1935809875505</v>
       </c>
       <c r="Y13" t="n">
-        <v>431.1145568530005</v>
+        <v>489.8777949503877</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2033.222718167679</v>
+        <v>1691.856237801876</v>
       </c>
       <c r="C14" t="n">
-        <v>1711.843491816804</v>
+        <v>1370.477011451001</v>
       </c>
       <c r="D14" t="n">
-        <v>1398.198638179665</v>
+        <v>1056.832157813862</v>
       </c>
       <c r="E14" t="n">
-        <v>1067.411388442404</v>
+        <v>726.0449080766007</v>
       </c>
       <c r="F14" t="n">
-        <v>722.3132251185754</v>
+        <v>380.9467447527724</v>
       </c>
       <c r="G14" t="n">
         <v>380.9467447527724</v>
       </c>
       <c r="H14" t="n">
-        <v>128.6599694654568</v>
+        <v>128.659969465457</v>
       </c>
       <c r="I14" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J14" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K14" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L14" t="n">
         <v>1059.071548358934</v>
@@ -5312,16 +5312,16 @@
         <v>2675.578323579424</v>
       </c>
       <c r="V14" t="n">
-        <v>2405.267789429136</v>
+        <v>2675.578323579424</v>
       </c>
       <c r="W14" t="n">
-        <v>2405.267789429136</v>
+        <v>2662.905472221034</v>
       </c>
       <c r="X14" t="n">
-        <v>2357.917152100884</v>
+        <v>2345.249142300284</v>
       </c>
       <c r="Y14" t="n">
-        <v>2033.222718167679</v>
+        <v>2020.554708367079</v>
       </c>
     </row>
     <row r="15">
@@ -5364,13 +5364,13 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M15" t="n">
-        <v>1606.310991511064</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N15" t="n">
-        <v>1629.56928853388</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O15" t="n">
-        <v>2146.089571124861</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P15" t="n">
         <v>2146.089571124861</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>474.9551552953889</v>
+        <v>389.0869922083496</v>
       </c>
       <c r="C16" t="n">
-        <v>376.546312507572</v>
+        <v>389.0869922083496</v>
       </c>
       <c r="D16" t="n">
-        <v>292.7094745562806</v>
+        <v>389.0869922083496</v>
       </c>
       <c r="E16" t="n">
-        <v>208.9469375616769</v>
+        <v>389.0869922083496</v>
       </c>
       <c r="F16" t="n">
-        <v>123.4172779208438</v>
+        <v>303.5573325675164</v>
       </c>
       <c r="G16" t="n">
-        <v>123.4172779208438</v>
+        <v>207.0995538131558</v>
       </c>
       <c r="H16" t="n">
-        <v>123.4172779208438</v>
+        <v>123.4172779208437</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>102.7129143774627</v>
+        <v>102.7129143774625</v>
       </c>
       <c r="K16" t="n">
-        <v>254.9154847581892</v>
+        <v>254.915484758189</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027736</v>
+        <v>489.4106539027734</v>
       </c>
       <c r="M16" t="n">
         <v>746.0697615118221</v>
@@ -5455,31 +5455,31 @@
         <v>1422.942916173672</v>
       </c>
       <c r="Q16" t="n">
-        <v>1496.732641814507</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="R16" t="n">
-        <v>1444.627927593278</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="S16" t="n">
-        <v>1444.627927593278</v>
+        <v>1365.712833143251</v>
       </c>
       <c r="T16" t="n">
-        <v>1280.705150907706</v>
+        <v>1201.790056457679</v>
       </c>
       <c r="U16" t="n">
-        <v>1067.062634295801</v>
+        <v>988.147539845774</v>
       </c>
       <c r="V16" t="n">
-        <v>872.8795642628193</v>
+        <v>793.9644698127921</v>
       </c>
       <c r="W16" t="n">
-        <v>661.3454373401908</v>
+        <v>702.6868253163352</v>
       </c>
       <c r="X16" t="n">
-        <v>588.3668988404963</v>
+        <v>540.4027782455123</v>
       </c>
       <c r="Y16" t="n">
-        <v>588.3668988404963</v>
+        <v>389.0869922083496</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C17" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599517</v>
       </c>
       <c r="D17" t="n">
-        <v>1098.796330498591</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975446</v>
+        <v>827.8895422975459</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099321</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803431</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H17" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924226</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
@@ -5540,7 +5540,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S17" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T17" t="n">
         <v>2979.295701071061</v>
@@ -5549,16 +5549,16 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573996</v>
       </c>
       <c r="W17" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.467337224692</v>
       </c>
       <c r="X17" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840157</v>
       </c>
       <c r="Y17" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="18">
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462914</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
@@ -5677,46 +5677,46 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L19" t="n">
-        <v>313.6614512960402</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M19" t="n">
-        <v>499.9530296343043</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N19" t="n">
-        <v>683.1426636655135</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O19" t="n">
-        <v>845.8474307072216</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P19" t="n">
-        <v>965.7235964838002</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q19" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R19" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S19" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918803</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U19" t="n">
-        <v>769.2584451161897</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
     <row r="20">
@@ -5735,16 +5735,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803432</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H20" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924226</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
@@ -5777,7 +5777,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S20" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T20" t="n">
         <v>2979.295701071061</v>
@@ -5829,25 +5829,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K21" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L21" t="n">
-        <v>978.5393418843826</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M21" t="n">
-        <v>1606.310991511064</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N21" t="n">
-        <v>1606.310991511064</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O21" t="n">
-        <v>1740.468202408463</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="P21" t="n">
-        <v>2146.089571124861</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462914</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>67.69877031229859</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K22" t="n">
-        <v>149.5338114222405</v>
+        <v>243.2367958390484</v>
       </c>
       <c r="L22" t="n">
-        <v>313.6614512960402</v>
+        <v>407.3644357128482</v>
       </c>
       <c r="M22" t="n">
-        <v>499.9530296343043</v>
+        <v>629.009399256734</v>
       </c>
       <c r="N22" t="n">
-        <v>683.1426636655135</v>
+        <v>812.1990332879432</v>
       </c>
       <c r="O22" t="n">
-        <v>845.8474307072216</v>
+        <v>974.9038003296512</v>
       </c>
       <c r="P22" t="n">
-        <v>965.7235964838002</v>
+        <v>1094.77996610623</v>
       </c>
       <c r="Q22" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R22" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S22" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918803</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U22" t="n">
-        <v>769.2584451161897</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C23" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D23" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498591</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975452</v>
+        <v>827.889542297544</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G23" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H23" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924226</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6017,10 +6017,10 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T23" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U23" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V23" t="n">
         <v>2644.789635573994</v>
@@ -6029,10 +6029,10 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X23" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y23" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443164</v>
       </c>
     </row>
     <row r="24">
@@ -6069,19 +6069,19 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K24" t="n">
-        <v>175.2341099238429</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L24" t="n">
-        <v>175.2341099238429</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M24" t="n">
-        <v>803.0057595505241</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N24" t="n">
-        <v>1458.783730761083</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O24" t="n">
-        <v>1975.304013352064</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P24" t="n">
         <v>2146.089571124861</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462914</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
@@ -6154,43 +6154,43 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M25" t="n">
-        <v>499.9530296343043</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N25" t="n">
-        <v>683.1426636655135</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O25" t="n">
-        <v>845.8474307072216</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P25" t="n">
-        <v>1094.779966106229</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q25" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R25" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S25" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918803</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U25" t="n">
-        <v>769.2584451161897</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
     <row r="26">
@@ -6206,49 +6206,49 @@
         <v>1584.222786214271</v>
       </c>
       <c r="D26" t="n">
-        <v>1293.722338718127</v>
+        <v>1293.722338718128</v>
       </c>
       <c r="E26" t="n">
-        <v>986.07949512186</v>
+        <v>986.0794951218604</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390261</v>
+        <v>664.1257379390265</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142176</v>
+        <v>345.9036637142181</v>
       </c>
       <c r="H26" t="n">
-        <v>116.7612945678971</v>
+        <v>116.761294567897</v>
       </c>
       <c r="I26" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J26" t="n">
-        <v>218.0146318563784</v>
+        <v>218.0146318563783</v>
       </c>
       <c r="K26" t="n">
-        <v>670.0483496134135</v>
+        <v>576.9969878838401</v>
       </c>
       <c r="L26" t="n">
-        <v>1256.420003061516</v>
+        <v>1100.28679488479</v>
       </c>
       <c r="M26" t="n">
-        <v>1802.420903106096</v>
+        <v>1739.339056658944</v>
       </c>
       <c r="N26" t="n">
-        <v>2423.283548473132</v>
+        <v>2360.20170202598</v>
       </c>
       <c r="O26" t="n">
-        <v>2956.374511095034</v>
+        <v>2893.292664647881</v>
       </c>
       <c r="P26" t="n">
-        <v>3397.613364956129</v>
+        <v>3334.531518508977</v>
       </c>
       <c r="Q26" t="n">
-        <v>3612.4284403795</v>
+        <v>3612.428440379499</v>
       </c>
       <c r="R26" t="n">
-        <v>3668.242947377513</v>
+        <v>3668.242947377512</v>
       </c>
       <c r="S26" t="n">
         <v>3596.670073605751</v>
@@ -6257,7 +6257,7 @@
         <v>3468.110152452356</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174144</v>
+        <v>3307.298104174143</v>
       </c>
       <c r="V26" t="n">
         <v>3060.13197616485</v>
@@ -6297,10 +6297,10 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H27" t="n">
-        <v>122.7521129356387</v>
+        <v>122.7521129356386</v>
       </c>
       <c r="I27" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J27" t="n">
         <v>186.4798411672776</v>
@@ -6309,19 +6309,19 @@
         <v>506.2189872295041</v>
       </c>
       <c r="L27" t="n">
-        <v>506.2189872295041</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="M27" t="n">
-        <v>1133.990636856185</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="N27" t="n">
-        <v>1789.768608066744</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="O27" t="n">
-        <v>2306.288890657725</v>
+        <v>1751.713933651898</v>
       </c>
       <c r="P27" t="n">
-        <v>2306.288890657725</v>
+        <v>2157.335302368295</v>
       </c>
       <c r="Q27" t="n">
         <v>2391.700393923186</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985348</v>
+        <v>504.3300981985351</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517124</v>
+        <v>429.065661551713</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414157</v>
+        <v>368.3732297414161</v>
       </c>
       <c r="E28" t="n">
         <v>307.7550988878066</v>
       </c>
       <c r="F28" t="n">
-        <v>245.3698453879679</v>
+        <v>245.369845387968</v>
       </c>
       <c r="G28" t="n">
-        <v>172.0564727746018</v>
+        <v>172.056472774602</v>
       </c>
       <c r="H28" t="n">
         <v>111.5186030232841</v>
       </c>
       <c r="I28" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J28" t="n">
-        <v>136.6424780796859</v>
+        <v>136.6424780796862</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192008</v>
+        <v>311.5288809192012</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225739</v>
+        <v>568.7078825225741</v>
       </c>
       <c r="M28" t="n">
         <v>848.0508225904113</v>
@@ -6406,7 +6406,7 @@
         <v>1689.449032728251</v>
       </c>
       <c r="R28" t="n">
-        <v>1660.488724648016</v>
+        <v>1660.488724648017</v>
       </c>
       <c r="S28" t="n">
         <v>1552.613322117754</v>
@@ -6418,16 +6418,16 @@
         <v>1221.336841102266</v>
       </c>
       <c r="V28" t="n">
-        <v>1050.298177210278</v>
+        <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.9084564286445</v>
+        <v>861.908456428645</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988159</v>
+        <v>722.7688154988164</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5974356026476</v>
+        <v>594.597435602648</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424152</v>
+        <v>1882.457606424153</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.222786214271</v>
+        <v>1584.222786214272</v>
       </c>
       <c r="D29" t="n">
-        <v>1293.722338718127</v>
+        <v>1293.722338718128</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218602</v>
+        <v>986.0794951218604</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390263</v>
+        <v>664.1257379390265</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142178</v>
+        <v>345.9036637142181</v>
       </c>
       <c r="H29" t="n">
         <v>116.7612945678971</v>
@@ -6461,25 +6461,25 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J29" t="n">
-        <v>247.9841471388008</v>
+        <v>311.0659935859517</v>
       </c>
       <c r="K29" t="n">
-        <v>606.9665031662627</v>
+        <v>763.0997113429868</v>
       </c>
       <c r="L29" t="n">
-        <v>1193.338156614365</v>
+        <v>1349.471364791089</v>
       </c>
       <c r="M29" t="n">
-        <v>1739.339056658946</v>
+        <v>1988.523626565243</v>
       </c>
       <c r="N29" t="n">
-        <v>2360.201702025981</v>
+        <v>2609.386271932278</v>
       </c>
       <c r="O29" t="n">
-        <v>2893.292664647883</v>
+        <v>3049.425872824607</v>
       </c>
       <c r="P29" t="n">
-        <v>3334.531518508978</v>
+        <v>3397.613364956129</v>
       </c>
       <c r="Q29" t="n">
         <v>3612.4284403795</v>
@@ -6491,22 +6491,22 @@
         <v>3596.670073605752</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452356</v>
+        <v>3468.110152452357</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174143</v>
+        <v>3307.298104174144</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.13197616485</v>
+        <v>3060.131976164851</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420326</v>
+        <v>2784.073622420327</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640571</v>
+        <v>2489.561698640572</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.01167084836</v>
+        <v>2188.011670848361</v>
       </c>
     </row>
     <row r="30">
@@ -6546,16 +6546,16 @@
         <v>506.2189872295041</v>
       </c>
       <c r="L30" t="n">
-        <v>989.7850731278173</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="M30" t="n">
-        <v>1235.193651060917</v>
+        <v>1133.990636856185</v>
       </c>
       <c r="N30" t="n">
-        <v>1235.193651060917</v>
+        <v>1789.768608066744</v>
       </c>
       <c r="O30" t="n">
-        <v>1751.713933651898</v>
+        <v>1789.768608066744</v>
       </c>
       <c r="P30" t="n">
         <v>2157.335302368295</v>
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.351124222132</v>
+        <v>1743.79887591859</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654427</v>
+        <v>1464.542485303045</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800459</v>
+        <v>1193.020467401238</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463677</v>
+        <v>904.3560533993077</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057098</v>
+        <v>601.3807258108106</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230773</v>
+        <v>302.137081180339</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189325</v>
+        <v>91.97314162835515</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076169</v>
+        <v>67.55513560234512</v>
       </c>
       <c r="J32" t="n">
-        <v>262.3706492640413</v>
+        <v>212.2049085111732</v>
       </c>
       <c r="K32" t="n">
-        <v>726.6260980185731</v>
+        <v>571.1872645386351</v>
       </c>
       <c r="L32" t="n">
-        <v>1325.219482464172</v>
+        <v>1064.507556257164</v>
       </c>
       <c r="M32" t="n">
-        <v>1976.493475235823</v>
+        <v>1610.508456301744</v>
       </c>
       <c r="N32" t="n">
-        <v>2504.304758873285</v>
+        <v>2249.971860514189</v>
       </c>
       <c r="O32" t="n">
-        <v>2944.344359765613</v>
+        <v>2801.663581981501</v>
       </c>
       <c r="P32" t="n">
-        <v>3292.531851897135</v>
+        <v>3192.911219976307</v>
       </c>
       <c r="Q32" t="n">
-        <v>3477.377412038084</v>
+        <v>3377.756780117256</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038084</v>
+        <v>3377.756780117256</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908499</v>
+        <v>3325.162335939832</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.18438039728</v>
+        <v>3215.580844380774</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761243</v>
+        <v>3073.747225696897</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394126</v>
+        <v>2845.559527281941</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291778</v>
+        <v>2588.479603131754</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154199</v>
+        <v>2312.946108946336</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004165</v>
+        <v>2030.374510748462</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423761</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024683</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239486</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732529</v>
+        <v>449.7314300348363</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563847</v>
+        <v>325.2996239179681</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898326</v>
       </c>
       <c r="H33" t="n">
-        <v>118.9348022288501</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076169</v>
+        <v>67.55513560234512</v>
       </c>
       <c r="J33" t="n">
-        <v>182.6625304604891</v>
+        <v>180.6701178220725</v>
       </c>
       <c r="K33" t="n">
-        <v>502.4016765227155</v>
+        <v>500.4092638842989</v>
       </c>
       <c r="L33" t="n">
-        <v>985.9677624210287</v>
+        <v>983.9753497826122</v>
       </c>
       <c r="M33" t="n">
-        <v>1231.376340354128</v>
+        <v>1611.746999409293</v>
       </c>
       <c r="N33" t="n">
-        <v>1231.376340354128</v>
+        <v>1611.746999409293</v>
       </c>
       <c r="O33" t="n">
-        <v>1747.89662294511</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2151.525579023091</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183337</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965141</v>
+        <v>365.6713676929722</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918677</v>
+        <v>309.3853606404866</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237468</v>
+        <v>267.6713584245265</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123137</v>
+        <v>226.0316571652542</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546511</v>
+        <v>182.6248332597523</v>
       </c>
       <c r="G34" t="n">
-        <v>143.299398783461</v>
+        <v>128.289890240723</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431939</v>
+        <v>86.73045008374208</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076169</v>
+        <v>67.55513560234512</v>
       </c>
       <c r="J34" t="n">
-        <v>145.0468983703942</v>
+        <v>67.55513560234512</v>
       </c>
       <c r="K34" t="n">
-        <v>332.1550322074062</v>
+        <v>149.390176712287</v>
       </c>
       <c r="L34" t="n">
-        <v>496.282672081206</v>
+        <v>425.1699371610695</v>
       </c>
       <c r="M34" t="n">
-        <v>701.1015743458892</v>
+        <v>723.1136360743163</v>
       </c>
       <c r="N34" t="n">
-        <v>989.5643011041684</v>
+        <v>906.3032701055256</v>
       </c>
       <c r="O34" t="n">
-        <v>1257.542160872947</v>
+        <v>1180.660157722216</v>
       </c>
       <c r="P34" t="n">
-        <v>1482.691419376595</v>
+        <v>1376.562239503606</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746646</v>
+        <v>1379.984435873657</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308587</v>
+        <v>1370.002557387759</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420501</v>
+        <v>1281.105584451834</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.9091795181</v>
+        <v>1159.305643501593</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689365</v>
+        <v>987.7859626250195</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395536</v>
+        <v>835.7257283273689</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000956</v>
+        <v>666.3144371400716</v>
       </c>
       <c r="X34" t="n">
-        <v>606.7225700124432</v>
+        <v>546.1532258045798</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584509</v>
+        <v>436.9602755027483</v>
       </c>
     </row>
     <row r="35">
@@ -7020,19 +7020,19 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L36" t="n">
-        <v>580.3847592515303</v>
+        <v>596.176270190801</v>
       </c>
       <c r="M36" t="n">
-        <v>1208.156408878212</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N36" t="n">
-        <v>1863.93438008877</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O36" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P36" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q36" t="n">
         <v>2380.454662679751</v>
@@ -7093,28 +7093,28 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K37" t="n">
-        <v>143.9541688140574</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L37" t="n">
-        <v>308.0818086878572</v>
+        <v>435.0968109750523</v>
       </c>
       <c r="M37" t="n">
-        <v>623.4297566485498</v>
+        <v>621.3883893133163</v>
       </c>
       <c r="N37" t="n">
-        <v>806.6193906797589</v>
+        <v>804.5780233445255</v>
       </c>
       <c r="O37" t="n">
-        <v>969.3241577214669</v>
+        <v>967.2827903862335</v>
       </c>
       <c r="P37" t="n">
-        <v>1089.200323498045</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q37" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R37" t="n">
         <v>1098.20216247628</v>
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C38" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D38" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803435</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H38" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7205,7 +7205,7 @@
         <v>2979.295701071061</v>
       </c>
       <c r="U38" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V38" t="n">
         <v>2644.789635573994</v>
@@ -7214,7 +7214,7 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X38" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y38" t="n">
         <v>1882.877496443165</v>
@@ -7251,25 +7251,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K39" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L39" t="n">
-        <v>978.5393418843826</v>
+        <v>174.7633905351325</v>
       </c>
       <c r="M39" t="n">
-        <v>1223.947919817482</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N39" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O39" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P39" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q39" t="n">
         <v>2380.454662679751</v>
@@ -7306,52 +7306,52 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K40" t="n">
-        <v>278.5901810446693</v>
+        <v>273.0105384364859</v>
       </c>
       <c r="L40" t="n">
-        <v>442.7178209184691</v>
+        <v>437.1381783102858</v>
       </c>
       <c r="M40" t="n">
-        <v>629.0093992567331</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N40" t="n">
-        <v>812.1990332879423</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O40" t="n">
-        <v>974.9038003296503</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P40" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q40" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R40" t="n">
         <v>1098.20216247628</v>
@@ -7360,22 +7360,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U40" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C41" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D41" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E41" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G41" t="n">
-        <v>261.1858216803425</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H41" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7433,25 +7433,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R41" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S41" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T41" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U41" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V41" t="n">
         <v>2644.789635573994</v>
       </c>
       <c r="W41" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X41" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y41" t="n">
         <v>1882.877496443165</v>
@@ -7494,19 +7494,19 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L42" t="n">
-        <v>978.5393418843826</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="M42" t="n">
-        <v>1223.947919817482</v>
+        <v>1122.744905612751</v>
       </c>
       <c r="N42" t="n">
-        <v>1223.947919817482</v>
+        <v>1778.52287682331</v>
       </c>
       <c r="O42" t="n">
-        <v>1740.468202408463</v>
+        <v>2295.043159414291</v>
       </c>
       <c r="P42" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7561,7 +7561,7 @@
         <v>87.33863074072673</v>
       </c>
       <c r="H43" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
@@ -7573,13 +7573,13 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L43" t="n">
-        <v>308.0818086878572</v>
+        <v>437.1381783102856</v>
       </c>
       <c r="M43" t="n">
-        <v>494.3733870261212</v>
+        <v>623.4297566485496</v>
       </c>
       <c r="N43" t="n">
-        <v>683.1426636655142</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O43" t="n">
         <v>974.9038003296507</v>
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C44" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599517</v>
       </c>
       <c r="D44" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E44" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F44" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G44" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H44" t="n">
         <v>68.77950792924223</v>
       </c>
       <c r="I44" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J44" t="n">
         <v>206.7689006129436</v>
@@ -7679,19 +7679,19 @@
         <v>2979.295701071061</v>
       </c>
       <c r="U44" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188069</v>
       </c>
       <c r="V44" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573996</v>
       </c>
       <c r="W44" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.467337224692</v>
       </c>
       <c r="X44" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840157</v>
       </c>
       <c r="Y44" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="45">
@@ -7722,7 +7722,7 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I45" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J45" t="n">
         <v>175.2341099238429</v>
@@ -7731,13 +7731,13 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L45" t="n">
-        <v>978.5393418843826</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="M45" t="n">
-        <v>1223.947919817482</v>
+        <v>1084.690231197904</v>
       </c>
       <c r="N45" t="n">
-        <v>1223.947919817482</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O45" t="n">
         <v>1740.468202408463</v>
@@ -7795,37 +7795,37 @@
         <v>123.9159479588727</v>
       </c>
       <c r="G46" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072671</v>
       </c>
       <c r="H46" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462916</v>
       </c>
       <c r="I46" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J46" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K46" t="n">
-        <v>143.9541688140574</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L46" t="n">
-        <v>308.0818086878572</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M46" t="n">
-        <v>623.4297566485498</v>
+        <v>593.6560140511123</v>
       </c>
       <c r="N46" t="n">
-        <v>812.1990332879427</v>
+        <v>776.8456480823215</v>
       </c>
       <c r="O46" t="n">
-        <v>974.9038003296507</v>
+        <v>939.5504151240295</v>
       </c>
       <c r="P46" t="n">
-        <v>1094.779966106229</v>
+        <v>1059.426580900608</v>
       </c>
       <c r="Q46" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R46" t="n">
         <v>1098.20216247628</v>
@@ -7849,7 +7849,7 @@
         <v>380.8985856984004</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974522</v>
       </c>
     </row>
   </sheetData>
@@ -7976,22 +7976,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K2" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L2" t="n">
-        <v>651.5514946987026</v>
+        <v>186.9664330399958</v>
       </c>
       <c r="M2" t="n">
-        <v>693.4207940321651</v>
+        <v>668.5156360519582</v>
       </c>
       <c r="N2" t="n">
-        <v>212.7983422525454</v>
+        <v>667.909075792015</v>
       </c>
       <c r="O2" t="n">
-        <v>149.5638374240964</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
         <v>502.0059847475129</v>
@@ -8064,16 +8064,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>92.38712204931191</v>
+        <v>465.3882399439974</v>
       </c>
       <c r="N3" t="n">
-        <v>144.321964672813</v>
+        <v>604.1626973083975</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P3" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q3" t="n">
         <v>327.7205688679246</v>
@@ -8213,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K5" t="n">
         <v>505.666843611017</v>
@@ -8222,16 +8222,16 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>693.4207940321651</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N5" t="n">
-        <v>306.7311214244058</v>
+        <v>667.909075792015</v>
       </c>
       <c r="O5" t="n">
-        <v>594.0482827698827</v>
+        <v>472.3580521446862</v>
       </c>
       <c r="P5" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
         <v>144.4986984183922</v>
@@ -8292,19 +8292,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K6" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>578.5109386733963</v>
+        <v>137.2604756525682</v>
       </c>
       <c r="M6" t="n">
-        <v>636.0828644837496</v>
+        <v>611.1777065035427</v>
       </c>
       <c r="N6" t="n">
-        <v>122.3638814211845</v>
+        <v>604.1626973083975</v>
       </c>
       <c r="O6" t="n">
         <v>92.68755888888889</v>
@@ -8450,16 +8450,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K8" t="n">
-        <v>505.666843611017</v>
+        <v>457.3649271011935</v>
       </c>
       <c r="L8" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
-        <v>155.1237765063188</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N8" t="n">
         <v>682.2612020826953</v>
@@ -8468,7 +8468,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q8" t="n">
         <v>144.4986984183922</v>
@@ -8532,19 +8532,19 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L9" t="n">
-        <v>578.5109386733963</v>
+        <v>557.9550992680676</v>
       </c>
       <c r="M9" t="n">
         <v>683.7992483186069</v>
       </c>
       <c r="N9" t="n">
-        <v>263.5850982253579</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O9" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
         <v>496.801919078302</v>
@@ -8766,25 +8766,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K12" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L12" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>489.2920096079789</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>747.7741039759435</v>
+        <v>546.0917343741362</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q12" t="n">
         <v>327.7205688679246</v>
@@ -8933,7 +8933,7 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M14" t="n">
-        <v>701.2411122488188</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N14" t="n">
         <v>682.2612020826953</v>
@@ -9012,16 +9012,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N15" t="n">
-        <v>108.8653421701425</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
         <v>327.7205688679246</v>
@@ -9477,10 +9477,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K21" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L21" t="n">
         <v>578.5109386733963</v>
@@ -9489,16 +9489,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N21" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O21" t="n">
-        <v>228.1998931286865</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q21" t="n">
-        <v>327.7205688679246</v>
+        <v>126.0381992661173</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9656,7 +9656,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q23" t="n">
-        <v>331.2113854294513</v>
+        <v>331.2113854294514</v>
       </c>
       <c r="R23" t="n">
         <v>102.5176150018526</v>
@@ -9717,22 +9717,22 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N24" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
-        <v>259.5940292362812</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
         <v>327.7205688679246</v>
@@ -9957,22 +9957,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N27" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118427</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>177.2623988786013</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10194,19 +10194,19 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M30" t="n">
-        <v>340.274574506988</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O30" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P30" t="n">
-        <v>496.801919078302</v>
+        <v>458.3628540128003</v>
       </c>
       <c r="Q30" t="n">
         <v>327.7205688679246</v>
@@ -10434,13 +10434,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
         <v>85.37211285416666</v>
       </c>
       <c r="O33" t="n">
-        <v>614.4252180716981</v>
+        <v>228.1998931286867</v>
       </c>
       <c r="P33" t="n">
         <v>496.801919078302</v>
@@ -10668,22 +10668,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
-        <v>176.3345925796061</v>
+        <v>192.2856137303845</v>
       </c>
       <c r="M36" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N36" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10899,19 +10899,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K39" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L39" t="n">
-        <v>578.5109386733963</v>
+        <v>203.8424305246122</v>
       </c>
       <c r="M39" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N39" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
@@ -10920,7 +10920,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11142,22 +11142,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M42" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N42" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
-        <v>496.801919078302</v>
+        <v>173.3576105420024</v>
       </c>
       <c r="Q42" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11379,16 +11379,16 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M45" t="n">
-        <v>340.2745745069883</v>
+        <v>688.0608343844987</v>
       </c>
       <c r="N45" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O45" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P45" t="n">
         <v>496.801919078302</v>
@@ -23264,7 +23264,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>256.5796531038789</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,22 +23306,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>93.77010711362799</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>45.40851520233434</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>314.4797666215418</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,22 +23413,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.2776261096563</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>97.42475435993872</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177846</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>82.92491162465755</v>
       </c>
       <c r="F13" t="n">
-        <v>43.24917601957458</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681697</v>
+        <v>95.49320096681696</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901686</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,16 +23470,16 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>61.00169374214258</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>209.4187856534022</v>
       </c>
       <c r="X13" t="n">
-        <v>160.6612066001148</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>325.411485859551</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>337.9528155621448</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23552,13 +23552,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W14" t="n">
-        <v>296.2107322866635</v>
+        <v>283.6646094418564</v>
       </c>
       <c r="X14" t="n">
-        <v>267.6026356665722</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23650,25 +23650,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>97.42475435993869</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>82.99846957177841</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>82.92491162465753</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>95.49320096681697</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338901</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>51.58366707901682</v>
       </c>
       <c r="S16" t="n">
-        <v>129.7096105845442</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>119.0539176019099</v>
       </c>
       <c r="X16" t="n">
-        <v>88.41245348541753</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.8026281767911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23789,7 +23789,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1042469.302017582</v>
+        <v>1041566.980596942</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1042469.302017582</v>
+        <v>1041566.980596942</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>931123.4101531131</v>
+        <v>931123.410153113</v>
       </c>
     </row>
     <row r="6">
@@ -26314,7 +26314,7 @@
         <v>252465.0493306995</v>
       </c>
       <c r="C2" t="n">
-        <v>252465.0493306996</v>
+        <v>252465.0493306995</v>
       </c>
       <c r="D2" t="n">
         <v>252465.0493306995</v>
@@ -26323,34 +26323,34 @@
         <v>223102.6327941607</v>
       </c>
       <c r="F2" t="n">
-        <v>223102.6327941607</v>
+        <v>223102.6327941605</v>
       </c>
       <c r="G2" t="n">
-        <v>252465.0493306995</v>
+        <v>252465.049330699</v>
       </c>
       <c r="H2" t="n">
-        <v>252465.0493306994</v>
+        <v>252465.049330699</v>
       </c>
       <c r="I2" t="n">
-        <v>252465.0493306995</v>
+        <v>252465.0493306991</v>
       </c>
       <c r="J2" t="n">
         <v>252465.0493306996</v>
       </c>
       <c r="K2" t="n">
-        <v>252465.0493306995</v>
+        <v>252465.0493306996</v>
       </c>
       <c r="L2" t="n">
-        <v>252465.0493306998</v>
+        <v>252465.0493306993</v>
       </c>
       <c r="M2" t="n">
+        <v>252465.0493306992</v>
+      </c>
+      <c r="N2" t="n">
+        <v>252465.0493306992</v>
+      </c>
+      <c r="O2" t="n">
         <v>252465.0493306993</v>
-      </c>
-      <c r="N2" t="n">
-        <v>252465.0493306994</v>
-      </c>
-      <c r="O2" t="n">
-        <v>252465.0493306992</v>
       </c>
       <c r="P2" t="n">
         <v>252465.0493306992</v>
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918561</v>
+        <v>173858.6570340552</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062173</v>
+        <v>22558.4295340134</v>
       </c>
       <c r="E3" t="n">
-        <v>112122.5614740445</v>
+        <v>112122.5614740446</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668198</v>
+        <v>47425.3255366819</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945027</v>
+        <v>200285.8640399294</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728541</v>
+        <v>62456.24177539664</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962296</v>
+        <v>43252.52447081117</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277117</v>
+        <v>27767.69404277127</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>199815.2079190947</v>
+        <v>205625.0607746775</v>
       </c>
       <c r="C4" t="n">
-        <v>199815.2079190947</v>
+        <v>205625.0607746775</v>
       </c>
       <c r="D4" t="n">
         <v>188683.9728110359</v>
@@ -26445,7 +26445,7 @@
         <v>161306.7834561731</v>
       </c>
       <c r="L4" t="n">
-        <v>161051.2095556898</v>
+        <v>160917.814946635</v>
       </c>
       <c r="M4" t="n">
         <v>160556.29099179</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001382</v>
+        <v>65170.06753481724</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001382</v>
+        <v>65170.06753481724</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26497,7 +26497,7 @@
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.73629173853</v>
+        <v>60823.19813315423</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
@@ -26506,10 +26506,10 @@
         <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="P5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551965</v>
       </c>
     </row>
     <row r="6">
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-196239.4080202651</v>
+        <v>-192188.7360128504</v>
       </c>
       <c r="C6" t="n">
-        <v>-14034.45972840895</v>
+        <v>-18330.07897879524</v>
       </c>
       <c r="D6" t="n">
-        <v>-20626.52106813129</v>
+        <v>-28362.81029152294</v>
       </c>
       <c r="E6" t="n">
-        <v>-55003.32287993221</v>
+        <v>-55213.0544266218</v>
       </c>
       <c r="F6" t="n">
-        <v>57119.23859411234</v>
+        <v>56909.5070474226</v>
       </c>
       <c r="G6" t="n">
-        <v>-13686.33651329219</v>
+        <v>-13686.33651329251</v>
       </c>
       <c r="H6" t="n">
-        <v>33738.9890233897</v>
+        <v>33738.98902338935</v>
       </c>
       <c r="I6" t="n">
-        <v>33738.98902338985</v>
+        <v>33738.98902338941</v>
       </c>
       <c r="J6" t="n">
-        <v>-179302.9285738957</v>
+        <v>-172786.6434193224</v>
       </c>
       <c r="K6" t="n">
-        <v>27499.22062060684</v>
+        <v>27499.22062060699</v>
       </c>
       <c r="L6" t="n">
-        <v>-27683.36831401394</v>
+        <v>-31732.20552448659</v>
       </c>
       <c r="M6" t="n">
-        <v>-8461.840436233324</v>
+        <v>-9513.535447421629</v>
       </c>
       <c r="N6" t="n">
-        <v>33738.98902338973</v>
+        <v>33738.98902338956</v>
       </c>
       <c r="O6" t="n">
-        <v>5971.294980618346</v>
+        <v>5971.294980618368</v>
       </c>
       <c r="P6" t="n">
         <v>33738.98902338956</v>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26707,13 +26707,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K2" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344378</v>
+        <v>518.7905844542308</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344378</v>
+        <v>518.7905844542308</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26811,13 +26811,13 @@
         <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
+        <v>917.060736844378</v>
+      </c>
+      <c r="K4" t="n">
         <v>917.0607368443782</v>
       </c>
-      <c r="K4" t="n">
-        <v>917.0607368443783</v>
-      </c>
       <c r="L4" t="n">
-        <v>869.344353009521</v>
+        <v>844.439195029314</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
@@ -26826,10 +26826,10 @@
         <v>776.4890963014441</v>
       </c>
       <c r="O4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="P4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.489096301444</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085247</v>
+        <v>59.28165692085237</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346399</v>
+        <v>34.70961755346408</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660676</v>
+        <v>78.0703022192458</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551362</v>
+        <v>17.58004954287449</v>
       </c>
       <c r="N2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346396</v>
+        <v>34.70961755346408</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344378</v>
+        <v>518.7905844542308</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485731</v>
+        <v>72.62154181506423</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773719</v>
+        <v>659.3622249971647</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407208</v>
+        <v>117.1268713042791</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085247</v>
+        <v>59.28165692085237</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346399</v>
+        <v>34.70961755346408</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344378</v>
+        <v>518.7905844542308</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485731</v>
+        <v>72.62154181506423</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27379,22 +27379,22 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>267.8164499324383</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>32.22375114696462</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,22 +27430,22 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27467,16 +27467,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>34.8993712897618</v>
+        <v>26.66263604343378</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27534,31 +27534,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>53.75373170750731</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27588,7 +27588,7 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
         <v>282.5844038405181</v>
@@ -27597,10 +27597,10 @@
         <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>175.6722168143525</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
         <v>220.8809405715231</v>
@@ -27616,25 +27616,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>268.1895558654973</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>332.1117095674869</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>392.5258019886049</v>
@@ -27704,7 +27704,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>124.5704364758544</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27761,7 +27761,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>61.99025433061401</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27774,7 +27774,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>12.74258818905031</v>
       </c>
       <c r="D7" t="n">
         <v>154.0767819665104</v>
@@ -27783,19 +27783,19 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>135.804650722887</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27831,7 +27831,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
         <v>280.4970980481341</v>
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>162.6597548089393</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>368.3658614632584</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
         <v>221.2655964161775</v>
@@ -27913,7 +27913,7 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
         <v>385.5580790162737</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
         <v>168.5030667546707</v>
@@ -28026,10 +28026,10 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>109.9888824545194</v>
       </c>
       <c r="J10" t="n">
         <v>30.07448747215907</v>
@@ -28059,25 +28059,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>24.04094380275529</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473195</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
     </row>
     <row r="17">
@@ -28749,10 +28749,10 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>5.636002634528353</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -28764,7 +28764,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>130.3599693155844</v>
+        <v>5.636002634529465</v>
       </c>
       <c r="R19" t="n">
         <v>122.6619794737488</v>
@@ -28980,7 +28980,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J22" t="n">
-        <v>35.71049010668742</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -28989,7 +28989,7 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>35.71049010668867</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -29001,7 +29001,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>122.6619794737488</v>
@@ -29047,7 +29047,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="F23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155857</v>
       </c>
       <c r="G23" t="n">
         <v>130.3599693155844</v>
@@ -29077,7 +29077,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -29226,7 +29226,7 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>5.636002634528381</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -29235,13 +29235,13 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
       <c r="R25" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082783</v>
       </c>
       <c r="S25" t="n">
         <v>130.3599693155844</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>93.99127447431646</v>
+        <v>30.27223765901135</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="N26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="O26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="P26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Q26" t="n">
-        <v>30.27223765901226</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="29">
@@ -29533,28 +29533,28 @@
         <v>93.99127447431646</v>
       </c>
       <c r="J29" t="n">
-        <v>30.2722376590126</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L29" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N29" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="O29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>93.99127447431646</v>
+        <v>30.27223765901226</v>
       </c>
       <c r="R29" t="n">
         <v>93.99127447431646</v>
@@ -29746,49 +29746,49 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="C32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="D32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="E32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="F32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="G32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="H32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="I32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="J32" t="n">
-        <v>48.65992738833486</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>106.3364573000707</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>106.3364573000707</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>106.3364573000707</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>43.49509683160079</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="T32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="U32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="V32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="W32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="X32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727099</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="C34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="D34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="E34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="F34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="G34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="H34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="I34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="J34" t="n">
-        <v>106.3364573000707</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
-        <v>106.3364573000707</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="M34" t="n">
-        <v>18.71446861254458</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="N34" t="n">
-        <v>106.3364573000707</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="P34" t="n">
-        <v>106.3364573000707</v>
+        <v>76.79385455031462</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="S34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="T34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="U34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="V34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="W34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="X34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727099</v>
       </c>
     </row>
     <row r="35">
@@ -30165,31 +30165,31 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J37" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>28.01250026485263</v>
       </c>
       <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>5.636002634529005</v>
-      </c>
-      <c r="R37" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
         <v>130.3599693155844</v>
@@ -30402,11 +30402,11 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K40" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K40" t="n">
-        <v>35.71049010668769</v>
-      </c>
       <c r="L40" t="n">
         <v>0</v>
       </c>
@@ -30426,7 +30426,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S40" t="n">
         <v>130.3599693155844</v>
@@ -30645,16 +30645,16 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>5.636002634529035</v>
+        <v>5.636002634529149</v>
       </c>
       <c r="O43" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -30876,7 +30876,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J46" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30885,22 +30885,22 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>28.0125002648524</v>
+      </c>
+      <c r="R46" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="N46" t="n">
-        <v>5.636002634529035</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S46" t="n">
         <v>130.3599693155844</v>
@@ -34696,22 +34696,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>498.303324968211</v>
+        <v>33.71826330950414</v>
       </c>
       <c r="M2" t="n">
-        <v>543.6957424344378</v>
+        <v>518.7905844542308</v>
       </c>
       <c r="N2" t="n">
-        <v>63.67985091476132</v>
+        <v>518.7905844542308</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
         <v>351.7045375065877</v>
@@ -34784,16 +34784,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>373.0011178946855</v>
       </c>
       <c r="N3" t="n">
-        <v>58.94985181864637</v>
+        <v>518.7905844542308</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>236.7324157120106</v>
@@ -34933,7 +34933,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>362.6084404317796</v>
@@ -34942,16 +34942,16 @@
         <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>543.6957424344378</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>157.6126300866217</v>
+        <v>518.7905844542308</v>
       </c>
       <c r="O5" t="n">
-        <v>444.4844453457863</v>
+        <v>322.7942147205898</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35012,19 +35012,19 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>488.450591816478</v>
+        <v>47.20012879564995</v>
       </c>
       <c r="M6" t="n">
-        <v>543.6957424344378</v>
+        <v>518.7905844542308</v>
       </c>
       <c r="N6" t="n">
-        <v>36.99176856701784</v>
+        <v>518.7905844542308</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -35170,16 +35170,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>362.6084404317796</v>
+        <v>314.3065239219562</v>
       </c>
       <c r="L8" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
-        <v>5.39872490859157</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N8" t="n">
         <v>533.1427107449111</v>
@@ -35188,7 +35188,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,19 +35252,19 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>488.450591816478</v>
+        <v>467.8947524111493</v>
       </c>
       <c r="M9" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="N9" t="n">
-        <v>178.2129853711913</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
         <v>409.7185542589873</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>396.904887558667</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>662.4019911217769</v>
+        <v>460.7196215199696</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>236.7324157120106</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.00382492257287</v>
+        <v>41.00382492257288</v>
       </c>
       <c r="K13" t="n">
         <v>153.7399700815419</v>
@@ -35586,7 +35586,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488442</v>
+        <v>74.53507640488444</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35653,7 +35653,7 @@
         <v>498.303324968211</v>
       </c>
       <c r="M14" t="n">
-        <v>551.5160606510916</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N14" t="n">
         <v>533.1427107449111</v>
@@ -35732,16 +35732,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>23.49322931597588</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
         <v>236.7324157120106</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257287</v>
+        <v>41.00382492257291</v>
       </c>
       <c r="K16" t="n">
-        <v>153.7399700815419</v>
+        <v>153.739970081542</v>
       </c>
       <c r="L16" t="n">
-        <v>236.8638072167519</v>
+        <v>236.863807216752</v>
       </c>
       <c r="M16" t="n">
         <v>259.2516238475239</v>
       </c>
       <c r="N16" t="n">
-        <v>256.1183467696907</v>
+        <v>256.1183467696908</v>
       </c>
       <c r="O16" t="n">
-        <v>235.4265619318108</v>
+        <v>235.4265619318109</v>
       </c>
       <c r="P16" t="n">
         <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488442</v>
+        <v>74.53507640488446</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -36045,10 +36045,10 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L19" t="n">
-        <v>171.4214974565483</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M19" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683763</v>
       </c>
       <c r="N19" t="n">
         <v>185.0400343749588</v>
@@ -36060,7 +36060,7 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q19" t="n">
-        <v>133.8167333257369</v>
+        <v>9.092766644681948</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36197,10 +36197,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>488.450591816478</v>
@@ -36209,16 +36209,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O21" t="n">
-        <v>135.5123342397976</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P21" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>236.7324157120106</v>
+        <v>35.05004611020335</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>5.636002634528348</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K22" t="n">
         <v>82.66165768680997</v>
@@ -36285,7 +36285,7 @@
         <v>165.78549482202</v>
       </c>
       <c r="M22" t="n">
-        <v>188.1733114527919</v>
+        <v>223.8838015594806</v>
       </c>
       <c r="N22" t="n">
         <v>185.0400343749588</v>
@@ -36297,7 +36297,7 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q22" t="n">
-        <v>133.8167333257369</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36373,10 +36373,10 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P23" t="n">
-        <v>351.7045375065879</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q23" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36437,22 +36437,22 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
-        <v>172.5106644169666</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q24" t="n">
         <v>236.7324157120106</v>
@@ -36522,7 +36522,7 @@
         <v>165.78549482202</v>
       </c>
       <c r="M25" t="n">
-        <v>193.8093140873203</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N25" t="n">
         <v>185.0400343749588</v>
@@ -36531,13 +36531,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P25" t="n">
-        <v>251.4470054535426</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q25" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257368</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>5.636002634529554</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>146.110881726089</v>
       </c>
       <c r="K26" t="n">
-        <v>456.5997149060961</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L26" t="n">
-        <v>592.2945994425274</v>
+        <v>528.5755626272223</v>
       </c>
       <c r="M26" t="n">
-        <v>551.5160606510915</v>
+        <v>645.507335125408</v>
       </c>
       <c r="N26" t="n">
         <v>627.1339852192276</v>
@@ -36613,10 +36613,10 @@
         <v>445.6958119809042</v>
       </c>
       <c r="Q26" t="n">
-        <v>216.9849246700714</v>
+        <v>280.7039614853756</v>
       </c>
       <c r="R26" t="n">
-        <v>56.37828989698318</v>
+        <v>56.3782898969832</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,22 +36677,22 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576761</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q27" t="n">
-        <v>86.27424572268727</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215738</v>
+        <v>63.91678700215741</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
@@ -36768,10 +36768,10 @@
         <v>258.3395240113953</v>
       </c>
       <c r="P28" t="n">
-        <v>215.0783106122746</v>
+        <v>215.0783106122747</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446897</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,28 +36829,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>176.3831193851016</v>
+        <v>240.1021562004054</v>
       </c>
       <c r="K29" t="n">
-        <v>362.6084404317796</v>
+        <v>456.5997149060961</v>
       </c>
       <c r="L29" t="n">
         <v>592.2945994425274</v>
       </c>
       <c r="M29" t="n">
-        <v>551.5160606510915</v>
+        <v>645.507335125408</v>
       </c>
       <c r="N29" t="n">
         <v>627.1339852192276</v>
       </c>
       <c r="O29" t="n">
-        <v>538.4757198201028</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P29" t="n">
-        <v>445.6958119809042</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q29" t="n">
-        <v>280.7039614853756</v>
+        <v>216.9849246700714</v>
       </c>
       <c r="R29" t="n">
         <v>56.37828989698318</v>
@@ -36914,19 +36914,19 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>247.8874524576761</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O30" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>409.7185542589873</v>
+        <v>371.2794891934856</v>
       </c>
       <c r="Q30" t="n">
         <v>236.7324157120106</v>
@@ -37066,25 +37066,25 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>194.7708091144239</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
-        <v>468.9448977318503</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
-        <v>604.6397822682817</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
-        <v>657.8525179511622</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
-        <v>533.1427107449111</v>
+        <v>645.922630517621</v>
       </c>
       <c r="O32" t="n">
-        <v>444.4844453457863</v>
+        <v>557.2643651184962</v>
       </c>
       <c r="P32" t="n">
-        <v>351.7045375065877</v>
+        <v>395.1996343381885</v>
       </c>
       <c r="Q32" t="n">
         <v>186.7126870110591</v>
@@ -37154,13 +37154,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>521.7376591828091</v>
+        <v>135.5123342397978</v>
       </c>
       <c r="P33" t="n">
         <v>409.7185542589873</v>
@@ -37224,25 +37224,25 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>76.26196982791168</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>188.9981149868807</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
-        <v>165.78549482202</v>
+        <v>278.5654145947299</v>
       </c>
       <c r="M34" t="n">
-        <v>206.8877800653365</v>
+        <v>300.9532312255018</v>
       </c>
       <c r="N34" t="n">
-        <v>291.3764916750296</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O34" t="n">
-        <v>270.6847068371496</v>
+        <v>277.1281693097887</v>
       </c>
       <c r="P34" t="n">
-        <v>227.4234934380289</v>
+        <v>197.8808906882728</v>
       </c>
       <c r="Q34" t="n">
         <v>3.456764010152483</v>
@@ -37388,22 +37388,22 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L36" t="n">
-        <v>86.27424572268784</v>
+        <v>102.2252668734663</v>
       </c>
       <c r="M36" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N36" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,16 +37461,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K37" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L37" t="n">
-        <v>165.78549482202</v>
+        <v>193.7979950868726</v>
       </c>
       <c r="M37" t="n">
-        <v>318.5332807683764</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N37" t="n">
         <v>185.0400343749588</v>
@@ -37482,10 +37482,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q37" t="n">
-        <v>9.092766644681488</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37619,19 +37619,19 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>488.450591816478</v>
+        <v>113.782083667694</v>
       </c>
       <c r="M39" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
@@ -37640,7 +37640,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q39" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>118.3721477934977</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L40" t="n">
         <v>165.78549482202</v>
@@ -37722,7 +37722,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37862,22 +37862,22 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P42" t="n">
-        <v>409.7185542589873</v>
+        <v>86.27424572268772</v>
       </c>
       <c r="Q42" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37941,16 +37941,16 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L43" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376043</v>
       </c>
       <c r="M43" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N43" t="n">
-        <v>190.6760370094878</v>
+        <v>190.6760370094879</v>
       </c>
       <c r="O43" t="n">
-        <v>294.7082188526632</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P43" t="n">
         <v>121.0870361379582</v>
@@ -38099,16 +38099,16 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L45" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>247.8874524576764</v>
+        <v>595.6737123351868</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O45" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>409.7185542589873</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K46" t="n">
         <v>82.66165768680997</v>
@@ -38181,10 +38181,10 @@
         <v>165.78549482202</v>
       </c>
       <c r="M46" t="n">
-        <v>318.5332807683764</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N46" t="n">
-        <v>190.6760370094878</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O46" t="n">
         <v>164.3482495370789</v>
@@ -38193,10 +38193,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q46" t="n">
-        <v>3.456764010152483</v>
+        <v>31.46926427500488</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
